--- a/test/org/hy/common/report/junit/total02/产品压力试验绩效统计汇总表11.xlsx
+++ b/test/org/hy/common/report/junit/total02/产品压力试验绩效统计汇总表11.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhengWei\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19230" windowHeight="7860" tabRatio="873"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>产品压力试验工时统计汇总表</t>
   </si>
@@ -82,107 +87,26 @@
     <t/>
   </si>
   <si>
-    <t>:operator</t>
+    <t>导出时间：{:exportTime}        来源：制造执行系统</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>:productNo</t>
+    <t>起止日期 ：{:startDate}-{:endDate}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>:productModel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:diameterNominal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].pressureLevel</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].standard</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].testItem</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:testTimes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:theDirection</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:timesOfTheFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:manHourOfTheFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:manHourTotalOfTheFirst</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:timesOfTheSecond</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:manHourOfTheSecond</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:manHourTotalOfTheSecond</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].clampingType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].testMedium</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].testConclusion</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].testDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:list[].testObject</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:productCount</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:firstTestNum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:otherTestNum</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:workhourTotal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>:otherWorkhourTotal</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>起止日期 ：:startDate-:endDate                                                                                                                                                                                            导出时间：:exportTime        来源：制造执行系统</t>
+    <r>
+      <t>:list[].proPressTestList[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.pressureLevel</t>
+    </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,8 +155,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -335,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,18 +289,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,26 +331,14 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -412,12 +355,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -459,7 +405,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,7 +440,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -706,7 +652,7 @@
   <dimension ref="A1:T124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -733,117 +679,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
+      <c r="A2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="13" t="s">
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="14" t="s">
+      <c r="T3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
@@ -862,131 +810,83 @@
       <c r="O4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="S5" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="19" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="8"/>
+      <c r="P6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1935,11 +1835,8 @@
       <c r="F124" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
+  <mergeCells count="19">
     <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:T2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="A3:A4"/>
@@ -1954,6 +1851,10 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="P2:T2"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
